--- a/Tmp/excel/mtdemo.xlsx
+++ b/Tmp/excel/mtdemo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>大麦理财委托国兴资本放款申请书</t>
   </si>
@@ -55,19 +55,59 @@
   </si>
   <si>
     <t>收款方信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">支付方式：▇网银(E-GOLD)  □现金(cash)  □银行汇款(Bank Transfers)  □其它(others)    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">请款说明 </t>
+  </si>
+  <si>
+    <t>人民币（大写）:</t>
+  </si>
+  <si>
+    <t>人民币（小写）:</t>
+  </si>
+  <si>
+    <t>部门负责人意见</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                签名：                       日期：</t>
+  </si>
+  <si>
+    <t>风控部意见</t>
+  </si>
+  <si>
+    <t>财务部意见</t>
+  </si>
+  <si>
+    <t>副总裁意见</t>
+  </si>
+  <si>
+    <t>总裁意见</t>
+  </si>
+  <si>
+    <t>财务部</t>
+  </si>
+  <si>
+    <t>出款记录：      年    月    日，依照以上审批意见出款           元。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        财务负责人签名：              出纳签名：              日期： </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,11 +152,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <b/>
+      <sz val="18"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -134,6 +185,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -143,14 +217,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,17 +231,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -187,14 +254,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,10 +277,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -233,14 +293,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -248,13 +300,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -271,192 +329,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -491,17 +549,57 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,8 +622,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,15 +654,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,8 +687,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,10 +700,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -608,140 +712,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -775,11 +879,62 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1572,10 +1727,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:BI25"/>
+  <dimension ref="A1:BI22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D9" sqref="D9:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1726,108 +1881,246 @@
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="41.25" customHeight="1" spans="1:2">
+    <row r="7" s="1" customFormat="1" ht="120" customHeight="1" spans="1:7">
       <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
     </row>
-    <row r="8" s="1" customFormat="1" ht="36" customHeight="1" spans="1:2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
+    <row r="8" s="1" customFormat="1" ht="36" customHeight="1" spans="1:9">
+      <c r="A8" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
     </row>
-    <row r="9" s="1" customFormat="1" ht="24" customHeight="1" spans="1:2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
+    <row r="9" s="1" customFormat="1" ht="81" customHeight="1" spans="1:9">
+      <c r="A9" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="18" t="str">
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(NUMBERSTRING(INT(D10),2)&amp;"元"&amp;TEXT(MOD(D10,1)*100,"[dbnum2]0角0分"),"零角零分","整"),"零角","零"),"零分","")</f>
+        <v>柒佰陆拾万元整</v>
+      </c>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
     </row>
-    <row r="10" s="1" customFormat="1" ht="23.25" customHeight="1" spans="1:2">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
+    <row r="10" s="1" customFormat="1" ht="72" customHeight="1" spans="1:9">
+      <c r="A10" s="16"/>
+      <c r="B10" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21">
+        <v>7600000</v>
+      </c>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
     </row>
-    <row r="11" s="1" customFormat="1" ht="33" customHeight="1" spans="1:2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
+    <row r="11" s="1" customFormat="1" ht="57.75" customHeight="1" spans="1:9">
+      <c r="A11" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
     </row>
-    <row r="12" s="1" customFormat="1" ht="34" customHeight="1" spans="1:2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
+    <row r="12" s="1" customFormat="1" ht="50.25" customHeight="1" spans="1:9">
+      <c r="A12" s="23"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
     </row>
-    <row r="13" s="1" customFormat="1" ht="40" customHeight="1" spans="1:2">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
+    <row r="13" s="1" customFormat="1" ht="69" customHeight="1" spans="1:9">
+      <c r="A13" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
     </row>
-    <row r="14" s="1" customFormat="1" ht="65" customHeight="1" spans="1:2">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
+    <row r="14" s="1" customFormat="1" ht="42.75" customHeight="1" spans="1:9">
+      <c r="A14" s="23"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="60" customHeight="1" spans="1:2">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
+    <row r="15" s="1" customFormat="1" ht="84" customHeight="1" spans="1:9">
+      <c r="A15" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="66" customHeight="1" spans="1:2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
+    <row r="16" ht="22.5" spans="1:9">
+      <c r="A16" s="23"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="57.75" customHeight="1" spans="1:2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
+    <row r="17" ht="19" customHeight="1" spans="1:9">
+      <c r="A17" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
     </row>
-    <row r="18" s="1" customFormat="1" ht="50.25" customHeight="1" spans="1:2">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
+    <row r="18" ht="30" customHeight="1" spans="1:9">
+      <c r="A18" s="23"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
     </row>
-    <row r="19" s="1" customFormat="1" ht="69" customHeight="1" spans="1:2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
+    <row r="19" ht="22.5" spans="1:9">
+      <c r="A19" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
     </row>
-    <row r="20" s="1" customFormat="1" ht="42.75" customHeight="1" spans="1:2">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
+    <row r="20" ht="41" customHeight="1" spans="1:9">
+      <c r="A20" s="23"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
     </row>
-    <row r="21" s="1" customFormat="1" ht="84" customHeight="1" spans="1:2">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
+    <row r="21" ht="38" customHeight="1" spans="1:9">
+      <c r="A21" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
+    <row r="22" ht="36" customHeight="1" spans="1:9">
+      <c r="A22" s="23"/>
+      <c r="B22" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="25">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
     <mergeCell ref="A2:G3"/>
+    <mergeCell ref="B11:G12"/>
+    <mergeCell ref="B13:G14"/>
+    <mergeCell ref="B15:G16"/>
+    <mergeCell ref="B17:G18"/>
+    <mergeCell ref="B19:G20"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
